--- a/data/easycook.xlsx
+++ b/data/easycook.xlsx
@@ -14,9 +14,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>{1018, 1, "4dd2457e322ce8b8", 1, 15}</t>
+    <t>(1018,1,"4dd2457e322ce8b8",1,15)</t>
+  </si>
+  <si>
+    <t>{
+                      "method":"get",
+                      "url":"https://test-calling-api.apyfc.com/calling/community/app/api/v3/topic/list",
+                      "params":{
+                          "userId":1018,
+                          "type":1,
+                          "communityCode":"4dd2457e322ce8b8",
+                          "pageIndex":1,
+                          "pageSize":15}
+                      }</t>
   </si>
 </sst>
 </file>
@@ -24,9 +36,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -39,6 +51,22 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -46,11 +74,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -63,43 +91,50 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -108,28 +143,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -153,7 +166,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -166,17 +187,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -191,61 +203,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -257,121 +383,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -382,78 +394,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -474,6 +414,60 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -482,6 +476,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -490,10 +502,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -502,139 +514,142 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -955,15 +970,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="58.25" customWidth="1"/>
+    <col min="1" max="1" width="85.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -971,6 +986,11 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2" ht="148.5" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/data/easycook.xlsx
+++ b/data/easycook.xlsx
@@ -14,7 +14,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>method</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>params</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>https://test-calling-api.apyfc.com/calling/community/app/api/v3/topic/list</t>
+  </si>
+  <si>
+    <t>{
+                          "userId":1018,
+                          "type":1,
+                          "communityCode":"4dd2457e322ce8b8",
+                          "pageIndex":1,
+                          "pageSize":15}</t>
+  </si>
   <si>
     <t>(1018,1,"4dd2457e322ce8b8",1,15)</t>
   </si>
@@ -38,8 +61,8 @@
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -50,19 +73,109 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -74,75 +187,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -156,30 +203,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -188,7 +211,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -203,13 +226,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -221,169 +400,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -397,25 +420,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -436,16 +446,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -466,12 +476,34 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -485,15 +517,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -502,10 +525,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -514,139 +537,145 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -970,28 +999,55 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="85.375" customWidth="1"/>
+    <col min="2" max="2" width="75" customWidth="1"/>
+    <col min="3" max="3" width="25.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" ht="148.5" spans="1:1">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
+    <row r="2" ht="175.5" spans="1:3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" ht="148.5" spans="1:1">
+      <c r="A4" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="https://test-calling-api.apyfc.com/calling/community/app/api/v3/topic/list"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/data/easycook.xlsx
+++ b/data/easycook.xlsx
@@ -82,58 +82,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -141,6 +89,57 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -148,32 +147,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -188,14 +164,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -203,6 +171,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -211,7 +203,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -226,25 +226,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -256,157 +406,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -422,11 +422,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -446,21 +444,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -472,6 +455,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -491,6 +483,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -502,18 +509,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -525,10 +525,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -537,19 +537,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -558,124 +558,121 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1002,7 +999,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="2"/>
@@ -1023,7 +1020,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" ht="175.5" spans="1:3">
+    <row r="2" ht="162" spans="1:3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1040,7 +1037,7 @@
       </c>
     </row>
     <row r="4" ht="148.5" spans="1:1">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
     </row>

--- a/data/easycook.xlsx
+++ b/data/easycook.xlsx
@@ -14,7 +14,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+  <si>
+    <t>{"default": "dev",
+"testing-status":{"dev": "http://test-calling-api.apyfc.com/calling/travel","emu": "https://calling-api.apyfc.com/emu/calling/community"}}</t>
+  </si>
   <si>
     <t>method</t>
   </si>
@@ -28,7 +32,13 @@
     <t>get</t>
   </si>
   <si>
-    <t>https://test-calling-api.apyfc.com/calling/community/app/api/v3/topic/list</t>
+    <t>/applet/api/travel/search/travelList</t>
+  </si>
+  <si>
+    <t>{"categoryCode":"","contentIds":"","flagNew":0,"flagHot":0,"flagPrice":0,"keyword":"门票","page":1,"pageSize":10}</t>
+  </si>
+  <si>
+    <t>/app/api/v3/topic/list</t>
   </si>
   <si>
     <t>{
@@ -36,22 +46,7 @@
                           "type":1,
                           "communityCode":"4dd2457e322ce8b8",
                           "pageIndex":1,
-                          "pageSize":15}</t>
-  </si>
-  <si>
-    <t>(1018,1,"4dd2457e322ce8b8",1,15)</t>
-  </si>
-  <si>
-    <t>{
-                      "method":"get",
-                      "url":"https://test-calling-api.apyfc.com/calling/community/app/api/v3/topic/list",
-                      "params":{
-                          "userId":1018,
-                          "type":1,
-                          "communityCode":"4dd2457e322ce8b8",
-                          "pageIndex":1,
-                          "pageSize":15}
-                      }</t>
+                          "pageSize":16}</t>
   </si>
 </sst>
 </file>
@@ -59,10 +54,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -76,6 +71,49 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -89,67 +127,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -163,6 +151,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -173,7 +176,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -181,37 +199,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -226,25 +221,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -256,157 +401,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -417,15 +412,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -459,6 +445,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -483,17 +484,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -509,11 +506,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -525,10 +520,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -537,16 +532,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -558,118 +553,124 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1">
       <alignment vertical="center"/>
@@ -996,54 +997,64 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="85.375" customWidth="1"/>
     <col min="2" max="2" width="75" customWidth="1"/>
-    <col min="3" max="3" width="25.25" customWidth="1"/>
+    <col min="3" max="3" width="31.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
+    <row r="1" ht="40.5" spans="1:1">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:3">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" ht="162" spans="1:3">
-      <c r="A2" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+    </row>
+    <row r="3" ht="54" spans="1:3">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
+      <c r="C3" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" ht="148.5" spans="1:1">
-      <c r="A4" s="2" t="s">
+    <row r="4" ht="162" spans="1:3">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="C4" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="https://test-calling-api.apyfc.com/calling/community/app/api/v3/topic/list"/>
+    <hyperlink ref="B3" r:id="rId1" display="/applet/api/travel/search/travelList"/>
+    <hyperlink ref="B4" r:id="rId1" display="/app/api/v3/topic/list" tooltip="https://test-calling-api.apyfc.com/calling/community/app/api/v3/topic/list"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/data/easycook.xlsx
+++ b/data/easycook.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24135" windowHeight="12105"/>
+    <workbookView windowWidth="28125" windowHeight="12105"/>
   </bookViews>
   <sheets>
     <sheet name="首页" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>{"default": "dev",
 "testing-status":{"dev": "http://test-calling-api.apyfc.com/calling/travel","emu": "https://calling-api.apyfc.com/emu/calling/community"}}</t>
@@ -26,6 +26,9 @@
     <t>url</t>
   </si>
   <si>
+    <t>headers</t>
+  </si>
+  <si>
     <t>params</t>
   </si>
   <si>
@@ -33,6 +36,14 @@
   </si>
   <si>
     <t>/applet/api/travel/search/travelList</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+  "token":"tk58721f7ac15c420a8270128d3b0302f5",
+  "clientType":"100",
+  "content-type":"application/json"
+}
+    </t>
   </si>
   <si>
     <t>{"categoryCode":"","contentIds":"","flagNew":0,"flagHot":0,"flagPrice":0,"keyword":"门票","page":1,"pageSize":10}</t>
@@ -54,10 +65,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -77,23 +88,39 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -104,18 +131,34 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -127,9 +170,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -137,76 +180,44 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -227,181 +238,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -412,6 +423,45 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -445,45 +495,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -498,8 +509,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -507,8 +518,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -520,10 +531,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -532,137 +543,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -674,9 +685,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -997,17 +1005,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="85.375" customWidth="1"/>
-    <col min="2" max="2" width="75" customWidth="1"/>
-    <col min="3" max="3" width="31.125" customWidth="1"/>
+    <col min="2" max="3" width="75" customWidth="1"/>
+    <col min="4" max="4" width="31.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="40.5" spans="1:1">
@@ -1015,7 +1023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:3">
+    <row r="2" s="1" customFormat="1" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1025,31 +1033,38 @@
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="3" ht="54" spans="1:3">
+    <row r="3" ht="81" spans="1:4">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" ht="162" spans="1:4">
+      <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" ht="162" spans="1:3">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
       <c r="B4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="4"/>
+      <c r="A5" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/data/easycook.xlsx
+++ b/data/easycook.xlsx
@@ -14,12 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>{"default": "dev",
 "testing-status":{"dev": "http://test-calling-api.apyfc.com/calling/travel","emu": "https://calling-api.apyfc.com/emu/calling/community"}}</t>
   </si>
   <si>
+    <t>id</t>
+  </si>
+  <si>
     <t>method</t>
   </si>
   <si>
@@ -32,7 +35,16 @@
     <t>params</t>
   </si>
   <si>
-    <t>get</t>
+    <t>body</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>post</t>
   </si>
   <si>
     <t>/applet/api/travel/search/travelList</t>
@@ -46,18 +58,19 @@
     </t>
   </si>
   <si>
-    <t>{"categoryCode":"","contentIds":"","flagNew":0,"flagHot":0,"flagPrice":0,"keyword":"门票","page":1,"pageSize":10}</t>
-  </si>
-  <si>
-    <t>/app/api/v3/topic/list</t>
-  </si>
-  <si>
     <t>{
-                          "userId":1018,
-                          "type":1,
-                          "communityCode":"4dd2457e322ce8b8",
-                          "pageIndex":1,
-                          "pageSize":16}</t>
+    "categoryCode":"",
+    "contentIds":"",
+    "flagNew":0,
+    "flagHot":0,
+    "flagPrice":0,
+    "keyword":"门票",
+    "page":1,
+    "pageSize":10
+    }</t>
+  </si>
+  <si>
+    <t>json</t>
   </si>
 </sst>
 </file>
@@ -65,10 +78,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -87,6 +100,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -94,21 +131,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -125,30 +148,74 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -162,62 +229,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -238,19 +251,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -262,25 +413,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -292,127 +425,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -423,45 +436,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -495,6 +469,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -502,6 +491,30 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -531,10 +544,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -543,19 +556,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -564,112 +577,112 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1005,25 +1018,28 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="85.375" customWidth="1"/>
-    <col min="2" max="3" width="75" customWidth="1"/>
-    <col min="4" max="4" width="31.125" customWidth="1"/>
+    <col min="1" max="1" width="48.125" customWidth="1"/>
+    <col min="2" max="2" width="9.5" customWidth="1"/>
+    <col min="3" max="3" width="36.875" customWidth="1"/>
+    <col min="4" max="4" width="49.75" customWidth="1"/>
+    <col min="5" max="5" width="27" customWidth="1"/>
+    <col min="6" max="6" width="31.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="40.5" spans="1:1">
+    <row r="1" ht="67.5" spans="1:1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:4">
+    <row r="2" s="1" customFormat="1" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1036,40 +1052,43 @@
       <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" ht="81" spans="1:4">
+    <row r="3" ht="135" spans="1:7">
       <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="4" ht="162" spans="1:4">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="2"/>
+    <row r="4" spans="2:2">
+      <c r="B4" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" display="/applet/api/travel/search/travelList"/>
-    <hyperlink ref="B4" r:id="rId1" display="/app/api/v3/topic/list" tooltip="https://test-calling-api.apyfc.com/calling/community/app/api/v3/topic/list"/>
+    <hyperlink ref="C3" r:id="rId1" display="/applet/api/travel/search/travelList"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/data/easycook.xlsx
+++ b/data/easycook.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xie\Desktop\py\Test_Project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40131A2D-4ADB-4E99-9DE2-9719E4634E81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF5745D8-5500-430E-A6CB-E437E3D5B918}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="1900" windowWidth="16800" windowHeight="9810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="首页" sheetId="1" r:id="rId1"/>
@@ -20,11 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
-  <si>
-    <t>{"default": "dev",
-"testing-status":{"dev": "http://test-calling-api.apyfc.com/calling/travel","emu": "https://calling-api.apyfc.com/emu/calling/community"}}</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>id</t>
   </si>
@@ -50,59 +46,63 @@
     <t>post</t>
   </si>
   <si>
-    <t>/applet/api/travel/search/travelList</t>
+    <t>1</t>
+  </si>
+  <si>
+    <t>checkpoint</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/choice/travelList</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"contentIds":1,"goodsIds":1,"categoryCode":"","cityCode":"","flagHot":0,"flagNew":0,"flagPrice":0,"keyword":"","page":3,"pageSize":14}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"default": "online",
+"testing-status":{"online": "https://travel-api.xianglinsen.com/travel","emu": "https://calling-api.apyfc.com/emu/calling/community"}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>json</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"code": "00000", "message": "业务成功", "data": [</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">{
-  "token":"tk58721f7ac15c420a8270128d3b0302f5",
-  "clientType":"100",
+  "token":"${token}",
+  "clientType":"${clientType}",
   "content-type":"application/json"
 }
     </t>
-  </si>
-  <si>
-    <t>json</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>checkpoint</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "categoryCode":"",
-    "contentIds":"",
-    "flagNew":0,
-    "flagHot":0,
-    "flagPrice":0,
-    "keyword":"门票",
-    "page":1,
-    "pageSize":10
-    }</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>code: "00000", "message": "业务成功"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"token":"tk5b135023ed1c4eeb98536b8f24408690","clientType":"100"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -118,6 +118,23 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -149,11 +166,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -163,14 +180,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -448,86 +474,98 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="48.08984375" customWidth="1"/>
-    <col min="2" max="2" width="9.453125" customWidth="1"/>
-    <col min="3" max="3" width="36.90625" customWidth="1"/>
-    <col min="4" max="4" width="49.7265625" customWidth="1"/>
-    <col min="5" max="5" width="27" customWidth="1"/>
-    <col min="6" max="6" width="31.08984375" customWidth="1"/>
-    <col min="8" max="8" width="18.81640625" customWidth="1"/>
+    <col min="2" max="2" width="28.36328125" customWidth="1"/>
+    <col min="3" max="3" width="9.453125" customWidth="1"/>
+    <col min="4" max="4" width="36.90625" customWidth="1"/>
+    <col min="5" max="5" width="49.7265625" customWidth="1"/>
+    <col min="6" max="6" width="27" customWidth="1"/>
+    <col min="7" max="7" width="31.08984375" customWidth="1"/>
+    <col min="9" max="9" width="32.54296875" customWidth="1"/>
+    <col min="10" max="10" width="22.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="70" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:9" ht="70" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="1" t="s">
+    <row r="3" spans="1:9" ht="84" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="D3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="6" t="s">
         <v>13</v>
       </c>
+      <c r="I3" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" ht="140" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="2"/>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C4" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D3" r:id="rId1" display="/applet/api/travel/search/travelList" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>